--- a/Resultados/Mercado mundial - Ajíes y pimientos, verdes (capsicum y pimenta).xlsx
+++ b/Resultados/Mercado mundial - Ajíes y pimientos, verdes (capsicum y pimenta).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Mexico" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Spain" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,7 +307,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,21 +514,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$22</f>
+              <f>'Países productores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$22</f>
+              <f>'Países productores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mexico'!$B$12:$B$73</f>
+              <f>'México'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mexico'!$C$12:$C$73</f>
+              <f>'México'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Spain'!$B$12:$B$73</f>
+              <f>'España'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Spain'!$C$12:$C$73</f>
+              <f>'España'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>2065408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>18.5486</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>38310350.67</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>18.5486</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3841509.05</v>
@@ -2161,10 +2160,10 @@
         <v>2057536</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>18.151</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>37346331.49</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>18.151</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3893378.44</v>
@@ -2183,10 +2182,10 @@
         <v>2067740</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>17.7631</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>36729448.01</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>17.7631</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4020357.9</v>
@@ -2205,10 +2204,10 @@
         <v>2080739</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>17.4358</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>36279306.09</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>17.4358</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3864816.06</v>
@@ -2227,10 +2226,10 @@
         <v>1975428</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>18.3061</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>36162463.97</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>18.3061</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3654160.29</v>
@@ -2249,10 +2248,10 @@
         <v>1987190</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>18.1433</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>36054210.73</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>18.1433</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3668505.53</v>
@@ -2271,10 +2270,10 @@
         <v>1945907</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>18.1175</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>35255006.59</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>18.1175</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3424698.32</v>
@@ -2293,10 +2292,10 @@
         <v>1909072</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>17.6279</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>33652931.41</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>17.6279</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3295615.33</v>
@@ -2315,10 +2314,10 @@
         <v>1889944</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>17.7424</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>33532215.33</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>17.7424</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3094614.29</v>
@@ -2337,10 +2336,10 @@
         <v>1954113</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>16.608</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>32453894.07</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>16.608</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3110557.65</v>
@@ -2359,10 +2358,10 @@
         <v>1930067</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>16.216</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>31297984.13</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>16.216</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2926696</v>
@@ -2381,10 +2380,10 @@
         <v>1943202</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>15.9572</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>31007996.02</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>15.9572</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2880119</v>
@@ -2403,10 +2402,10 @@
         <v>1903874</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>15.9098</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>30290303.97</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>15.9098</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2692968</v>
@@ -2425,10 +2424,10 @@
         <v>1873860</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>15.8576</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>29715006.06</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>15.8576</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2601950</v>
@@ -2447,10 +2446,10 @@
         <v>1876561</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>15.337</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>28780758.52</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>15.337</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2384903</v>
@@ -2469,10 +2468,10 @@
         <v>1812636</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>15.522</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>28135784.64</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>15.522</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2215537</v>
@@ -2491,10 +2490,10 @@
         <v>1720076</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>15.9543</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>27442542.17</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>15.9543</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2059978</v>
@@ -2513,10 +2512,10 @@
         <v>1722857</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>15.5068</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>26716003.35</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>15.5068</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2019649</v>
@@ -2535,10 +2534,10 @@
         <v>1685570</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>15.0533</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>25373342.86</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>15.0533</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1884621</v>
@@ -2557,10 +2556,10 @@
         <v>1672813</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>14.7253</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>24632623.97</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>14.7253</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1701796</v>
@@ -2579,10 +2578,10 @@
         <v>1713039</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>14.2083</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>24339323.47</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>14.2083</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1582643</v>
@@ -2601,10 +2600,10 @@
         <v>1659440</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>13.5872</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>22547199.15</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>13.5872</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1535685</v>
@@ -2623,10 +2622,10 @@
         <v>1590546</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>13.4726</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21428821.97</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>13.4726</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1348974</v>
@@ -2645,10 +2644,10 @@
         <v>1616497</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12.914</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>20875426.81</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12.914</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1273160.19</v>
@@ -2667,10 +2666,10 @@
         <v>1591012</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>12.2237</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>19448038.5</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>12.2237</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1243355.83</v>
@@ -2689,10 +2688,10 @@
         <v>1502873</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>12.3209</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18516694.29</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>12.3209</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1200233.19</v>
@@ -2711,10 +2710,10 @@
         <v>1402209</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>12.3358</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>17297357.31</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>12.3358</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1102200.63</v>
@@ -2733,10 +2732,10 @@
         <v>1371339</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11.9604</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>16401728.83</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11.9604</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1048092.21</v>
@@ -2755,10 +2754,10 @@
         <v>1356953</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>10.3586</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>14056137.15</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>10.3586</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>892583</v>
@@ -2777,10 +2776,10 @@
         <v>1235224</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>10.5056</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>12976807.63</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>10.5056</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>831427</v>
@@ -2799,10 +2798,10 @@
         <v>1206330</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>10.1353</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>12226550.4</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>10.1353</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>745725</v>
@@ -2821,10 +2820,10 @@
         <v>1071131</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>10.5626</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>11313978.48</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>10.5626</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>740251</v>
@@ -2843,10 +2842,10 @@
         <v>1072484</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>10.1917</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>10930448.36</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>10.1917</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>662015</v>
@@ -2865,10 +2864,10 @@
         <v>1072218</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>10.1311</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>10862787.04</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>10.1311</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>600899</v>
@@ -2887,10 +2886,10 @@
         <v>1117566</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9.449399999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>10560365</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9.449399999999999</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>622767</v>
@@ -2909,10 +2908,10 @@
         <v>1117363</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>9.2036</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>10283712</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>9.2036</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>607164</v>
@@ -2931,10 +2930,10 @@
         <v>1098316</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>9.257899999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10168094</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>9.257899999999999</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>526340</v>
@@ -2953,10 +2952,10 @@
         <v>1176629</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8.376200000000001</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>9855626</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8.376200000000001</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>491054</v>
@@ -2975,10 +2974,10 @@
         <v>1124909</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.569100000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>9639460</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8.569100000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>495649</v>
@@ -2997,10 +2996,10 @@
         <v>1038432</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8.570399999999999</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8899787</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8.570399999999999</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>434488</v>
@@ -3019,10 +3018,10 @@
         <v>939852</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9.093399999999999</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>8546421</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9.093399999999999</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>373088</v>
@@ -3041,10 +3040,10 @@
         <v>995094</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8.267899999999999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8227332</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8.267899999999999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>368912</v>
@@ -3063,10 +3062,10 @@
         <v>946011</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8.477600000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8019916</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8.477600000000001</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>332687</v>
@@ -3085,10 +3084,10 @@
         <v>909732</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.427100000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>7666380</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8.427100000000001</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>340105</v>
@@ -3107,10 +3106,10 @@
         <v>892570</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8.7765</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>7833666</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8.7765</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>293140</v>
@@ -3129,10 +3128,10 @@
         <v>859316</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>8.675700000000001</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>7455134</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>8.675700000000001</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>292693</v>
@@ -3151,10 +3150,10 @@
         <v>848006</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>8.7089</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>7385229</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>8.7089</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>256659</v>
@@ -3173,10 +3172,10 @@
         <v>838207</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.067299999999999</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6762045</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.067299999999999</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>215633</v>
@@ -3195,10 +3194,10 @@
         <v>802107</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>8.267299999999999</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6631299</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>8.267299999999999</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>191093</v>
@@ -3217,10 +3216,10 @@
         <v>774971</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.688000000000001</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>6732942</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.688000000000001</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>186607</v>
@@ -3239,10 +3238,10 @@
         <v>772620</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>8.6449</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>6679200</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>8.6449</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>181133</v>
@@ -3261,10 +3260,10 @@
         <v>740296</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>8.359500000000001</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>6188506</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>8.359500000000001</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>154653</v>
@@ -3283,10 +3282,10 @@
         <v>675483</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>8.8163</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>5955227</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>8.8163</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>155205</v>
@@ -3305,10 +3304,10 @@
         <v>638990</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.564200000000001</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5472448</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.564200000000001</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>128337</v>
@@ -3327,10 +3326,10 @@
         <v>676473</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>8.9762</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>6072170</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>8.9762</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>120726</v>
@@ -3349,10 +3348,10 @@
         <v>656792</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>9.149899999999999</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>6009570</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>9.149899999999999</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>80025</v>
@@ -3371,10 +3370,10 @@
         <v>658190</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>8.889100000000001</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5850733</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>8.889100000000001</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>69683</v>
@@ -3392,10 +3391,10 @@
         <v>645905</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.725100000000001</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5635564</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.725100000000001</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>87229</v>
@@ -3413,10 +3412,10 @@
         <v>611040</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>8.529200000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5211668</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>8.529200000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>71628</v>
@@ -3434,10 +3433,10 @@
         <v>582310</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>8.709299999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5071488</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>8.709299999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>66349</v>
@@ -3455,10 +3454,10 @@
         <v>597339</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>8.930899999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5334801</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>8.930899999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>57404</v>
@@ -3476,10 +3475,10 @@
         <v>595258</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>8.756500000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>5212370</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>8.756500000000001</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>50895</v>
@@ -3497,10 +3496,10 @@
         <v>658953</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.9656</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>5907926</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.9656</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>41490</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3897,7 +3896,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Egipto</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Argelia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4009,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Túnez</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4117,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4216,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4230,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4244,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4272,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4286,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4300,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4314,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4342,7 +4341,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4538,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4634,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4648,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4662,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4676,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4690,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4704,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4718,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4732,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malasia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4746,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4760,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tailandia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4774,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>4168.76</v>
+        <v>1195811.86</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.001085188124182605</v>
+        <v>0.3112870084218596</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1191643.1</v>
+        <v>3841509.05</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3102018202976771</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>3841509.05</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4820,59 +4811,58 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4942,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5021,10 +5011,10 @@
         <v>762480</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.4332</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>17104871.19</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.4332</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>30433.38</v>
@@ -5043,10 +5033,10 @@
         <v>760367</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22.5655</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>17158085.63</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22.5655</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>24914.95</v>
@@ -5065,10 +5055,10 @@
         <v>756349</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>22.6411</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>17124602.25</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>22.6411</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>35439.42</v>
@@ -5087,10 +5077,10 @@
         <v>770725</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.0986</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>17031925.69</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.0986</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>65448.12</v>
@@ -5109,10 +5099,10 @@
         <v>754028</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>22.967</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>17317728.97</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>22.967</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>78465.74000000001</v>
@@ -5131,10 +5121,10 @@
         <v>744293</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22.8729</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>17024152.09</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>22.8729</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>106515.84</v>
@@ -5153,10 +5143,10 @@
         <v>737628</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>22.7132</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>16753896</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>22.7132</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7007.79</v>
@@ -5175,10 +5165,10 @@
         <v>728110</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>22.5455</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>16415580.8</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>22.5455</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>5.63</v>
@@ -5197,10 +5187,10 @@
         <v>750208</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>22.9042</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>17182908.93</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>22.9042</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5217,10 +5207,10 @@
         <v>724123</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>16263833.46</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>22.46</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5237,10 +5227,10 @@
         <v>710000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>22.2535</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>15800000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>22.2535</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5259,10 +5249,10 @@
         <v>707000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>22.0651</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>15600000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>22.0651</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5281,10 +5271,10 @@
         <v>705000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>22.0142</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>15520000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>22.0142</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5303,10 +5293,10 @@
         <v>680000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>22.0265</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>14978000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>22.0265</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5325,10 +5315,10 @@
         <v>660000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>21.9697</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>14500000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>21.9697</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300</v>
@@ -5347,10 +5337,10 @@
         <v>650000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>21.9231</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>14250000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>21.9231</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5369,10 +5359,10 @@
         <v>650000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>21.5385</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>14000000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>21.5385</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2</v>
@@ -5391,10 +5381,10 @@
         <v>630000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>20.6349</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13000000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>20.6349</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5413,10 +5403,10 @@
         <v>610000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>20.4918</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>12500000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>20.4918</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5435,10 +5425,10 @@
         <v>605000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>19.8347</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>12000000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>19.8347</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>194</v>
@@ -5457,10 +5447,10 @@
         <v>600000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>19.1667</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>11500000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>19.1667</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>131</v>
@@ -5479,10 +5469,10 @@
         <v>570000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>18.4211</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>10500000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>18.4211</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>40</v>
@@ -5501,10 +5491,10 @@
         <v>530000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.5849</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>9850000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.5849</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>165</v>
@@ -5523,10 +5513,10 @@
         <v>500000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>9400000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>18.8</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7.05</v>
@@ -5545,10 +5535,10 @@
         <v>440000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>17.7273</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>7800000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>17.7273</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>31</v>
@@ -5567,10 +5557,10 @@
         <v>400000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18.125</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7250000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18.125</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26</v>
@@ -5589,10 +5579,10 @@
         <v>380000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>18.4211</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7000000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>18.4211</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>9</v>
@@ -5611,10 +5601,10 @@
         <v>350000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>18.5714</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6500000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>18.5714</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>31</v>
@@ -5633,10 +5623,10 @@
         <v>300000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>18.2333</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>5470000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>18.2333</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>16</v>
@@ -5655,10 +5645,10 @@
         <v>285000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17.5439</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>5000000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17.5439</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9</v>
@@ -5677,10 +5667,10 @@
         <v>245000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>17.551</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>4300000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>17.551</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>14</v>
@@ -5699,10 +5689,10 @@
         <v>170000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3400000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>20</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>543</v>
@@ -5721,10 +5711,10 @@
         <v>185000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>17.2973</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3200000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>17.2973</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5743,10 +5733,10 @@
         <v>180000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>17.2222</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3100000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>17.2222</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5765,10 +5755,10 @@
         <v>170000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>17.0588</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2900000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>17.0588</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5787,10 +5777,10 @@
         <v>166000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>16.8675</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2800000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>16.8675</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5809,10 +5799,10 @@
         <v>160000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>16.875</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2700000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>16.875</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5831,10 +5821,10 @@
         <v>160000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>16.875</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>2700000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>16.875</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5853,10 +5843,10 @@
         <v>160000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>16.875</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2700000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>16.875</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5875,10 +5865,10 @@
         <v>155000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>16.129</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2500000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>16.129</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5897,10 +5887,10 @@
         <v>150000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>15.3333</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2300000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>15.3333</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5919,10 +5909,10 @@
         <v>148000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>15.5405</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2300000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>15.5405</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5941,10 +5931,10 @@
         <v>135000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>15.8889</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2145000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>15.8889</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5963,10 +5953,10 @@
         <v>125000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1865000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>14.92</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5985,10 +5975,10 @@
         <v>130000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15.3846</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15.3846</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6007,10 +5997,10 @@
         <v>135000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15.1852</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2050000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15.1852</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6029,10 +6019,10 @@
         <v>120000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>16.1667</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1940000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>16.1667</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6051,10 +6041,10 @@
         <v>110000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16.1818</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1780000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16.1818</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6073,10 +6063,10 @@
         <v>110000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>16.1818</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1780000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>16.1818</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6095,10 +6085,10 @@
         <v>105000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16.2857</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1710000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16.2857</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6117,10 +6107,10 @@
         <v>110000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15.3636</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1690000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15.3636</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6139,10 +6129,10 @@
         <v>95000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15.4737</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1470000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15.4737</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6161,10 +6151,10 @@
         <v>100000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1630000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>16.3</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6183,10 +6173,10 @@
         <v>90000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>16.3333</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1470000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>16.3333</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6205,10 +6195,10 @@
         <v>135000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>15.5556</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2100000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>15.5556</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6227,10 +6217,10 @@
         <v>135000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>15.4074</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2080000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>15.4074</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6249,10 +6239,10 @@
         <v>145000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>14</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2030000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>14</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6270,10 +6260,10 @@
         <v>145000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13.7931</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13.7931</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6291,10 +6281,10 @@
         <v>150000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>13.3333</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>2000000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>13.3333</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6312,10 +6302,10 @@
         <v>150000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12.6667</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1900000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12.6667</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6333,10 +6323,10 @@
         <v>170000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12.5294</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2130000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12.5294</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6354,10 +6344,10 @@
         <v>200000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.925</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2385000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.925</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6375,10 +6365,10 @@
         <v>280000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.1429</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3120000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.1429</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6714,7 +6704,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6793,10 +6783,10 @@
         <v>173134</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>21.2613</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3681061.47</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>21.2613</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4168.76</v>
@@ -6815,10 +6805,10 @@
         <v>156932</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>16.4212</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2577010.05</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>16.4212</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3024.68</v>
@@ -6837,10 +6827,10 @@
         <v>147808</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>17.4831</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2584143.6</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>17.4831</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2359.85</v>
@@ -6859,10 +6849,10 @@
         <v>157911</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>17.8483</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2818442.96</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>17.8483</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3064.47</v>
@@ -6881,10 +6871,10 @@
         <v>149577</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>18.1672</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2717393.53</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>18.1672</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1975.84</v>
@@ -6903,10 +6893,10 @@
         <v>156799</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>21.5517</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>3379289.13</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>21.5517</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1258.12</v>
@@ -6925,10 +6915,10 @@
         <v>160438</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>20.5492</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>3296874.66</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>20.5492</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2098.86</v>
@@ -6947,10 +6937,10 @@
         <v>170135</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>16.0874</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2737028.11</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>16.0874</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2124.97</v>
@@ -6969,10 +6959,10 @@
         <v>148689</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>16.0727</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2389828.87</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>16.0727</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2639.09</v>
@@ -6991,10 +6981,10 @@
         <v>143465</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>16.6102</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2382988.59</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>16.6102</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3852.7</v>
@@ -7013,10 +7003,10 @@
         <v>132910</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>17.2628</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2294400</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>17.2628</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3616</v>
@@ -7035,10 +7025,10 @@
         <v>136132</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>17.4811</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2379736</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>17.4811</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>6473</v>
@@ -7057,10 +7047,10 @@
         <v>144391</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>14.7637</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2131740</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>14.7637</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>4713</v>
@@ -7079,10 +7069,10 @@
         <v>143979</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>16.2215</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2335562</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>16.2215</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6440</v>
@@ -7101,10 +7091,10 @@
         <v>140440</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>13.8249</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1941564</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>13.8249</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4767</v>
@@ -7123,10 +7113,10 @@
         <v>132337</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>15.5283</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2054968</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>15.5283</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>7086</v>
@@ -7145,10 +7135,10 @@
         <v>87863</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>21.5156</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1890428</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>21.5156</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>7649</v>
@@ -7167,10 +7157,10 @@
         <v>92292</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>18.2169</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1681277</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>18.2169</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4791</v>
@@ -7189,10 +7179,10 @@
         <v>92193</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>17.5422</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1617264</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>17.5422</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>3412</v>
@@ -7211,10 +7201,10 @@
         <v>82048</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>17.4442</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1431258</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>17.4442</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6974</v>
@@ -7233,10 +7223,10 @@
         <v>140693</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13.1749</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1853610</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13.1749</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5746</v>
@@ -7255,10 +7245,10 @@
         <v>140174</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>12.7309</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1784540</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>12.7309</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>4089</v>
@@ -7277,10 +7267,10 @@
         <v>146890</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>12.7367</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1870890</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>12.7367</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>4945</v>
@@ -7299,10 +7289,10 @@
         <v>145427</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>11.9278</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1734630</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>11.9278</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3394.07</v>
@@ -7321,10 +7311,10 @@
         <v>163533</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>10.9898</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1797197</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>10.9898</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1878</v>
@@ -7343,10 +7333,10 @@
         <v>155980</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>11.8577</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1849559</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>11.8577</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2675</v>
@@ -7365,10 +7355,10 @@
         <v>99655</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>14.5073</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1445723</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>14.5073</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2796</v>
@@ -7387,10 +7377,10 @@
         <v>82722</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>11.8765</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>982447</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>11.8765</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>711</v>
@@ -7409,10 +7399,10 @@
         <v>75972</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>12.0899</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>918491</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>12.0899</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1037</v>
@@ -7431,10 +7421,10 @@
         <v>83589</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>9.1724</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>766715</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>9.1724</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2547</v>
@@ -7453,10 +7443,10 @@
         <v>102347</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8.554500000000001</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>875527</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8.554500000000001</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2656</v>
@@ -7475,10 +7465,10 @@
         <v>96104</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>9.032299999999999</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>868036</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>9.032299999999999</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2154</v>
@@ -7497,10 +7487,10 @@
         <v>73360</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>10.3765</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>761217</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>10.3765</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2414</v>
@@ -7519,10 +7509,10 @@
         <v>66413</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>9.541399999999999</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>633676</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>9.541399999999999</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1100</v>
@@ -7541,10 +7531,10 @@
         <v>74471</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>8.6678</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>645498</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>8.6678</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>177</v>
@@ -7563,10 +7553,10 @@
         <v>72580</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>8.2029</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>595370</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>8.2029</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>212</v>
@@ -7585,10 +7575,10 @@
         <v>65483</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.228</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>669759</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.228</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7607,10 +7597,10 @@
         <v>66184</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>8.2173</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>543851</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>8.2173</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7629,10 +7619,10 @@
         <v>79329</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>8.358600000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>663082</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>8.358600000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7651,10 +7641,10 @@
         <v>50935</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>10.4499</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>532266</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>10.4499</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7673,10 +7663,10 @@
         <v>47762</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>9.646600000000001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>460740</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>9.646600000000001</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7695,10 +7685,10 @@
         <v>61910</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8.266500000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>511778</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8.266500000000001</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7717,10 +7707,10 @@
         <v>45106</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>9.0717</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>409190</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>9.0717</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7739,10 +7729,10 @@
         <v>60652</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>8.7478</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>530573</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>8.7478</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7761,10 +7751,10 @@
         <v>57909</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>8.594799999999999</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>497718</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>8.594799999999999</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7783,10 +7773,10 @@
         <v>55911</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>9.5024</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>531286</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>9.5024</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7805,10 +7795,10 @@
         <v>49821</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>9.668299999999999</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>481682</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>9.668299999999999</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7827,10 +7817,10 @@
         <v>40246</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>8.4215</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>338930</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>8.4215</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7849,10 +7839,10 @@
         <v>40189</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6.796600000000001</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>273149</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6.796600000000001</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7871,10 +7861,10 @@
         <v>55765</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>7.453</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>415614</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>7.453</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7893,10 +7883,10 @@
         <v>56876</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7.0242</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>399511</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7.0242</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7915,10 +7905,10 @@
         <v>60787</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7.1573</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>435071</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7.1573</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7937,10 +7927,10 @@
         <v>44949</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>6.9012</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>310202</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>6.9012</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7959,10 +7949,10 @@
         <v>36291</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5.2585</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>190835</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5.2585</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7981,10 +7971,10 @@
         <v>35588</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5.0125</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>178384</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5.0125</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -8003,10 +7993,10 @@
         <v>38259</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5.011100000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>191721</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5.011100000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8025,10 +8015,10 @@
         <v>37801</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5.2782</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>199522</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5.2782</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8046,10 +8036,10 @@
         <v>42502</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>3.9323</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>167129</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>3.9323</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8067,10 +8057,10 @@
         <v>41751</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>134440</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>3.22</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8088,10 +8078,10 @@
         <v>41517</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>3.2184</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>133619</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>3.2184</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8109,10 +8099,10 @@
         <v>40129</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>3.0577</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>122701</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>3.0577</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8130,10 +8120,10 @@
         <v>37409</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.9192</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>109206</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.9192</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8151,10 +8141,10 @@
         <v>34117</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.8372</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>96798</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.8372</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8490,7 +8480,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8569,10 +8559,10 @@
         <v>76223</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>40.421</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3081010</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>40.421</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>546.22</v>
@@ -8591,10 +8581,10 @@
         <v>76398</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>39.5138</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3018775</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>39.5138</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>827.25</v>
@@ -8613,10 +8603,10 @@
         <v>80239</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>38.5261</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3091295</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>38.5261</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>921.36</v>
@@ -8635,10 +8625,10 @@
         <v>77786</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>33.8995</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2636905</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>33.8995</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>296.91</v>
@@ -8657,10 +8647,10 @@
         <v>79267</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>33.1244</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2625669</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>33.1244</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>220.23</v>
@@ -8679,10 +8669,10 @@
         <v>78652</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>32.4845</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2554974</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>32.4845</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>234.95</v>
@@ -8701,10 +8691,10 @@
         <v>80517</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>32.3928</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2608172</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>32.3928</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>32.46</v>
@@ -8723,10 +8713,10 @@
         <v>81563</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>30.134</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2457822</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>30.134</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>250.68</v>
@@ -8745,10 +8735,10 @@
         <v>79262</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>29.1118</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2307456</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>29.1118</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>66.84</v>
@@ -8767,10 +8757,10 @@
         <v>78974</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>28.2664</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2232308</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>28.2664</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>196.95</v>
@@ -8789,10 +8779,10 @@
         <v>78758</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>27.4175</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2159348</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>27.4175</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1712</v>
@@ -8811,10 +8801,10 @@
         <v>78708</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>25.9486</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2042360</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>25.9486</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7</v>
@@ -8833,10 +8823,10 @@
         <v>76553</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>25.8026</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1975269</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>25.8026</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>43</v>
@@ -8855,10 +8845,10 @@
         <v>81162</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>24.4782</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1986700</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>24.4782</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>53</v>
@@ -8877,10 +8867,10 @@
         <v>75492</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>24.3337</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1837003</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>24.3337</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>30</v>
@@ -8899,10 +8889,10 @@
         <v>76215</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>23.5672</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1796177</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>23.5672</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -8921,10 +8911,10 @@
         <v>75212</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>23.3636</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1757226</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>23.3636</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>7</v>
@@ -8943,10 +8933,10 @@
         <v>78558</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>23.4499</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1842175</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>23.4499</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>124</v>
@@ -8965,10 +8955,10 @@
         <v>80493</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>22.7225</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1829000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>22.7225</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>22</v>
@@ -8987,10 +8977,10 @@
         <v>78083</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.7717</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.7717</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>10</v>
@@ -9009,10 +8999,10 @@
         <v>80425</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>22.2568</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1790000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>22.2568</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>98</v>
@@ -9031,10 +9021,10 @@
         <v>77259</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>22.6511</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1750000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>22.6511</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -9053,10 +9043,10 @@
         <v>73143</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21.3281</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1560000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21.3281</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>43</v>
@@ -9075,10 +9065,10 @@
         <v>69850</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>21.1883</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1480000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>21.1883</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>156.5</v>
@@ -9097,10 +9087,10 @@
         <v>70077</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>20.8628</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1462000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>20.8628</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>41</v>
@@ -9119,10 +9109,10 @@
         <v>69884</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>20.0332</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1400000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>20.0332</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1243</v>
@@ -9141,10 +9131,10 @@
         <v>61933</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>18.2455</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1130000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>18.2455</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>520</v>
@@ -9163,10 +9153,10 @@
         <v>64429</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>17.8491</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1150000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>17.8491</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1944</v>
@@ -9185,10 +9175,10 @@
         <v>63898</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>16.9019</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1080000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>16.9019</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8</v>
@@ -9207,10 +9197,10 @@
         <v>57658</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17.4824</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1008000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17.4824</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>83</v>
@@ -9229,10 +9219,10 @@
         <v>58386</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.5279</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>965000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.5279</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>598</v>
@@ -9251,10 +9241,10 @@
         <v>56185</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>16.9796</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>954000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>16.9796</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>53</v>
@@ -9273,10 +9263,10 @@
         <v>49805</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>18.472</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>920000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>18.472</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>200</v>
@@ -9295,10 +9285,10 @@
         <v>48695</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>18.4824</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>900000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>18.4824</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>74</v>
@@ -9317,10 +9307,10 @@
         <v>48000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>17.7708</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>853000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>17.7708</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9339,10 +9329,10 @@
         <v>47000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15.5319</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>730000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15.5319</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9361,10 +9351,10 @@
         <v>47500</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.7895</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>750000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.7895</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9383,10 +9373,10 @@
         <v>49000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>15.0612</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>738000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>15.0612</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9405,10 +9395,10 @@
         <v>50000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>725000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>14.5</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9427,10 +9417,10 @@
         <v>47000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>14.1489</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>665000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>14.1489</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9449,10 +9439,10 @@
         <v>46000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>13.913</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>640000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>13.913</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9471,10 +9461,10 @@
         <v>48000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9493,10 +9483,10 @@
         <v>54000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>11.1111</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>11.1111</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9515,10 +9505,10 @@
         <v>41000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>14.1463</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>580000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>14.1463</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9537,10 +9527,10 @@
         <v>41000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13.2927</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>545000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13.2927</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9559,10 +9549,10 @@
         <v>41000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.439</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>510000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.439</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9581,10 +9571,10 @@
         <v>37000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12.973</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>480000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12.973</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9603,10 +9593,10 @@
         <v>31000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>12.2581</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>380000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>12.2581</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9625,10 +9615,10 @@
         <v>31000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>12.0968</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>375000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>12.0968</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9647,10 +9637,10 @@
         <v>30000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>12.3333</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>370000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>12.3333</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9669,10 +9659,10 @@
         <v>28000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>12.3214</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>345000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>12.3214</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9691,10 +9681,10 @@
         <v>27500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>12.3636</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>340000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>12.3636</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9713,10 +9703,10 @@
         <v>26500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.4528</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>330000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.4528</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9735,10 +9725,10 @@
         <v>26000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.8077</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>307000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.8077</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9757,10 +9747,10 @@
         <v>23400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>12.3996</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>290151</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>12.3996</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9779,10 +9769,10 @@
         <v>22400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.3754</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>254808</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.3754</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9801,10 +9791,10 @@
         <v>22400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11.3839</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>255000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11.3839</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9822,10 +9812,10 @@
         <v>24200</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10.5372</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>255000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10.5372</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9843,10 +9833,10 @@
         <v>23700</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11.519</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>273000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11.519</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9864,10 +9854,10 @@
         <v>23000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>11.5217</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>265000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>11.5217</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9885,10 +9875,10 @@
         <v>22200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11.4865</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>255000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11.4865</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9906,10 +9896,10 @@
         <v>21700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.5207</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.5207</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9927,10 +9917,10 @@
         <v>20900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>11.4833</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>240000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>11.4833</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10266,7 +10256,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10345,10 +10335,10 @@
         <v>338636</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3061260.44</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>9.039999999999999</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -10365,10 +10355,10 @@
         <v>334545</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>9.028</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3020262.11</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>9.028</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.07000000000000001</v>
@@ -10387,10 +10377,10 @@
         <v>321923</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>8.533100000000001</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2747018.03</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>8.533100000000001</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.04</v>
@@ -10409,10 +10399,10 @@
         <v>314772</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>8.808299999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2772593.76</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>8.808299999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.01</v>
@@ -10431,10 +10421,10 @@
         <v>300377</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>8.617899999999999</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2588632.56</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>8.617899999999999</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.93</v>
@@ -10453,10 +10443,10 @@
         <v>310365</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>8.1914</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2542333</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>8.1914</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.12</v>
@@ -10475,10 +10465,10 @@
         <v>310147</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>7.6075</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2359441</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>7.6075</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10495,10 +10485,10 @@
         <v>260222</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>7.5382</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1961598</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>7.5382</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10515,10 +10505,10 @@
         <v>255716</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>7.4888</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1915016</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>7.4888</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>42.57</v>
@@ -10537,10 +10527,10 @@
         <v>263932</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7.131</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1882106.1</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>7.131</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>29.5</v>
@@ -10559,10 +10549,10 @@
         <v>249516</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>6.9463</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1733214.7</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>6.9463</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>294</v>
@@ -10581,10 +10571,10 @@
         <v>242523</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7.1858</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1742711</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7.1858</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2822</v>
@@ -10603,10 +10593,10 @@
         <v>239991</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>6.724</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1613699</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>6.724</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7501</v>
@@ -10625,10 +10615,10 @@
         <v>237266</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>5.8339</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1384184</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>5.8339</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1850</v>
@@ -10647,10 +10637,10 @@
         <v>279452</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>5.0967</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1424275</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>5.0967</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>905</v>
@@ -10669,10 +10659,10 @@
         <v>232703</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>5.0459</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1174197</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>5.0459</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>501</v>
@@ -10691,10 +10681,10 @@
         <v>204048</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>5.532</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1128791.7</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>5.532</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>310</v>
@@ -10713,10 +10703,10 @@
         <v>204747</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>5.7879</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1185057</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>5.7879</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>145</v>
@@ -10735,10 +10725,10 @@
         <v>187236</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>5.6507</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1058023</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>5.6507</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>291</v>
@@ -10757,10 +10747,10 @@
         <v>194588</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>5.655600000000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1100514</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>5.655600000000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>112</v>
@@ -10779,10 +10769,10 @@
         <v>176264</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>6.0518</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1066722</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>6.0518</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>34</v>
@@ -10801,10 +10791,10 @@
         <v>150598</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4.2171</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>635089</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4.2171</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>25</v>
@@ -10823,10 +10813,10 @@
         <v>142556</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4.071800000000001</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>580464</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4.071800000000001</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>193</v>
@@ -10845,10 +10835,10 @@
         <v>174708</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>4.1655</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>727747</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>4.1655</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>158.98</v>
@@ -10867,10 +10857,10 @@
         <v>183347</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>5.4963</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1007726</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>5.4963</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>350</v>
@@ -10889,10 +10879,10 @@
         <v>164814</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>5.1475</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>848388</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>5.1475</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26</v>
@@ -10911,10 +10901,10 @@
         <v>161319</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4.9687</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>801545</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4.9687</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>23</v>
@@ -10933,10 +10923,10 @@
         <v>169610</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6.150600000000001</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1043211</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6.150600000000001</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>42</v>
@@ -10955,10 +10945,10 @@
         <v>265083</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.7769</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>471017</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.7769</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>118</v>
@@ -10977,10 +10967,10 @@
         <v>161090</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.9673</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>316915</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.9673</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>122</v>
@@ -10999,10 +10989,10 @@
         <v>157499</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2.0025</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>315385</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2.0025</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>34</v>
@@ -11021,10 +11011,10 @@
         <v>162479</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.9905</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>323407</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.9905</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>57</v>
@@ -11043,10 +11033,10 @@
         <v>193551</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.1958</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>425000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.1958</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>12</v>
@@ -11065,10 +11055,10 @@
         <v>190000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.1947</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>417000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.1947</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -11087,10 +11077,10 @@
         <v>240000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.1583</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>518000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.1583</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>27</v>
@@ -11109,10 +11099,10 @@
         <v>235000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.9106</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>449000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.9106</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -11131,10 +11121,10 @@
         <v>230429</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.8929</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>436189</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.8929</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -11153,10 +11143,10 @@
         <v>280000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.5679</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>439000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.5679</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -11175,10 +11165,10 @@
         <v>264321</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.2922</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>341564</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.2922</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11197,10 +11187,10 @@
         <v>243246</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.2896</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>313685</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.2896</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11219,10 +11209,10 @@
         <v>120388</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.5002</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>301000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.5002</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11241,10 +11231,10 @@
         <v>173717</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.9999</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>173700</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.9999</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11263,10 +11253,10 @@
         <v>107000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2.0509</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>219445</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2.0509</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1</v>
@@ -11285,10 +11275,10 @@
         <v>104000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.9957</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>207551</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.9957</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11307,10 +11297,10 @@
         <v>108000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2.0378</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>220082</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2.0378</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11329,10 +11319,10 @@
         <v>112693</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.8999</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>214100</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.8999</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11351,10 +11341,10 @@
         <v>105000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2.0476</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2.0476</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11373,10 +11363,10 @@
         <v>104800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.8569</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>194600</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.8569</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11395,10 +11385,10 @@
         <v>105900</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2.3796</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>252000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2.3796</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11417,10 +11407,10 @@
         <v>103200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3.1376</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>323800</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3.1376</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11439,10 +11429,10 @@
         <v>110872</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>299354</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.7</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11461,10 +11451,10 @@
         <v>100000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11483,10 +11473,10 @@
         <v>100000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11505,10 +11495,10 @@
         <v>100000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>190000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.9</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11527,10 +11517,10 @@
         <v>100000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>189000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.89</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11549,10 +11539,10 @@
         <v>83569</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.1001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>175500</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.1001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11571,10 +11561,10 @@
         <v>90000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.8889</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>170000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.8889</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11592,10 +11582,10 @@
         <v>90000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.8889</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>170000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.8889</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11613,10 +11603,10 @@
         <v>80000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.9375</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>155000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.9375</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11634,10 +11624,10 @@
         <v>67000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.8955</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>127000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.8955</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11655,10 +11645,10 @@
         <v>64000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.8906</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>121000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.8906</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11676,10 +11666,10 @@
         <v>48000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11697,10 +11687,10 @@
         <v>48000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>90000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.875</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -12036,7 +12026,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12115,10 +12105,10 @@
         <v>21670</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>64.1361</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1389830</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>64.1361</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>85431.74000000001</v>
@@ -12137,10 +12127,10 @@
         <v>22260</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>68.8805</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1533280</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>68.8805</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>89571.00999999999</v>
@@ -12159,10 +12149,10 @@
         <v>22240</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>67.9658</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1511560</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>67.9658</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>76400.09</v>
@@ -12181,10 +12171,10 @@
         <v>21750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>67.71719999999999</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1472850</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>67.71719999999999</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>67638.17999999999</v>
@@ -12203,10 +12193,10 @@
         <v>21430</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1402380</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>65.44</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>73530.38</v>
@@ -12225,10 +12215,10 @@
         <v>20580</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>61.9757</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1275460</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>61.9757</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>66303.07000000001</v>
@@ -12247,10 +12237,10 @@
         <v>20498</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>62.3431</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1277908</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>62.3431</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>54516.7</v>
@@ -12269,10 +12259,10 @@
         <v>19623</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>59.9111</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1175635</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>59.9111</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>45667.53</v>
@@ -12291,10 +12281,10 @@
         <v>18263</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>60.3692</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1102522</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>60.3692</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>37443.17</v>
@@ -12313,10 +12303,10 @@
         <v>18513</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>61.0566</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1130340</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>61.0566</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>33696.66</v>
@@ -12335,10 +12325,10 @@
         <v>18100</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>55.2265</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>999600</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>55.2265</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>31371</v>
@@ -12357,10 +12347,10 @@
         <v>17440</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>55.6362</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>970296</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>55.6362</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>24853</v>
@@ -12379,10 +12369,10 @@
         <v>17739</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>51.9245</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>921089</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>51.9245</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>28971</v>
@@ -12401,10 +12391,10 @@
         <v>18139</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>48.27480000000001</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>875657</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>48.27480000000001</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>23537</v>
@@ -12423,10 +12413,10 @@
         <v>19099</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>48.8084</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>932191</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>48.8084</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>32060</v>
@@ -12445,10 +12435,10 @@
         <v>18861</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>48.6793</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>918140</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>48.6793</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>31682</v>
@@ -12467,10 +12457,10 @@
         <v>21798</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>48.5151</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1057533</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>48.5151</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25744</v>
@@ -12489,10 +12479,10 @@
         <v>23699</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>48.4313</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1147774</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>48.4313</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>17882</v>
@@ -12511,10 +12501,10 @@
         <v>23672</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>44.7939</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1060362</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>44.7939</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>18335</v>
@@ -12533,10 +12523,10 @@
         <v>22895</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>47.0419</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1077025</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>47.0419</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>14086</v>
@@ -12555,10 +12545,10 @@
         <v>22388</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>47.17619999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1056181</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>47.17619999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11513</v>
@@ -12577,10 +12567,10 @@
         <v>21964</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>48.0871</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1056184</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>48.0871</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>8293</v>
@@ -12599,10 +12589,10 @@
         <v>22786</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>42.9716</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>979151</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>42.9716</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>4723</v>
@@ -12621,10 +12611,10 @@
         <v>23204</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>40.8017</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>946762</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>40.8017</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3093</v>
@@ -12643,10 +12633,10 @@
         <v>22600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>40.8894</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>924100</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>40.8894</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2036</v>
@@ -12665,10 +12655,10 @@
         <v>22350</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>39.8242</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>890070</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>39.8242</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1165</v>
@@ -12687,10 +12677,10 @@
         <v>22856</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>39.0827</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>893275</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>39.0827</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1036</v>
@@ -12709,10 +12699,10 @@
         <v>23200</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>37.4009</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>867700</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>37.4009</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1265</v>
@@ -12731,10 +12721,10 @@
         <v>22900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>34.5197</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>790500</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>34.5197</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2160</v>
@@ -12753,10 +12743,10 @@
         <v>24500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>30.3102</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>742600</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>30.3102</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2170</v>
@@ -12775,10 +12765,10 @@
         <v>25200</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>29.119</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>733800</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>29.119</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2083</v>
@@ -12797,10 +12787,10 @@
         <v>26400</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>28.6098</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>755300</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>28.6098</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2372</v>
@@ -12819,10 +12809,10 @@
         <v>25900</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>28.2471</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>731600</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>28.2471</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1933</v>
@@ -12841,10 +12831,10 @@
         <v>28400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>31.7077</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>900500</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>31.7077</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>912</v>
@@ -12863,10 +12853,10 @@
         <v>27400</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>29.0292</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>795400</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>29.0292</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>50</v>
@@ -12885,10 +12875,10 @@
         <v>25400</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>28.5118</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>724200</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>28.5118</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>62</v>
@@ -12907,10 +12897,10 @@
         <v>27100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>25.8376</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>700200</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>25.8376</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>392</v>
@@ -12929,10 +12919,10 @@
         <v>27200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>25.4706</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>692800</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>25.4706</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>109</v>
@@ -12951,10 +12941,10 @@
         <v>26284</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>25.5118</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>670552</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>25.5118</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12973,10 +12963,10 @@
         <v>27360</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>23.2112</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>635058</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>23.2112</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12995,10 +12985,10 @@
         <v>25700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>23.4125</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>601700</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>23.4125</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -13017,10 +13007,10 @@
         <v>27600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>20.9928</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>579400</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>20.9928</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -13039,10 +13029,10 @@
         <v>26700</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>20.5918</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>549800</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>20.5918</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -13061,10 +13051,10 @@
         <v>26900</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>20.4981</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>551400</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>20.4981</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -13083,10 +13073,10 @@
         <v>28600</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>18.8217</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>538300</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>18.8217</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>582</v>
@@ -13105,10 +13095,10 @@
         <v>29000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>18.0138</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>522400</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>18.0138</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>23</v>
@@ -13127,10 +13117,10 @@
         <v>28800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>16.6979</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>480900</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>16.6979</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>33</v>
@@ -13149,10 +13139,10 @@
         <v>29700</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16.5657</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>492000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16.5657</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>14</v>
@@ -13171,10 +13161,10 @@
         <v>27700</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>16.6065</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>460000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>16.6065</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>9</v>
@@ -13193,10 +13183,10 @@
         <v>27800</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16.4317</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>456800</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16.4317</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>173</v>
@@ -13215,10 +13205,10 @@
         <v>31200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>17.4519</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>544500</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>17.4519</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>106</v>
@@ -13237,10 +13227,10 @@
         <v>27700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15.8773</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>439800</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15.8773</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>52</v>
@@ -13259,10 +13249,10 @@
         <v>23600</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>16.2839</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>384300</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>16.2839</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>30</v>
@@ -13281,10 +13271,10 @@
         <v>24200</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>16.3017</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>394500</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>16.3017</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>35</v>
@@ -13303,10 +13293,10 @@
         <v>22265</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>16.7123</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>372100</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>16.7123</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>83</v>
@@ -13325,10 +13315,10 @@
         <v>23500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>16.6894</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>392200</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>16.6894</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>100</v>
@@ -13347,10 +13337,10 @@
         <v>23500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>16.3447</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>384100</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>16.3447</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>139</v>
@@ -13368,10 +13358,10 @@
         <v>22700</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>15.9339</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>361700</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>15.9339</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>215</v>
@@ -13389,10 +13379,10 @@
         <v>21600</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>17.7315</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>383000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>17.7315</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>146</v>
@@ -13410,10 +13400,10 @@
         <v>20800</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>17.6587</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>367300</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>17.6587</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>98</v>
@@ -13431,10 +13421,10 @@
         <v>22900</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>17.5852</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>402700</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>17.5852</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>225</v>
@@ -13452,10 +13442,10 @@
         <v>21900</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>15.2283</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>333500</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>15.2283</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13473,10 +13463,10 @@
         <v>20300</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>17.5714</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>356700</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>17.5714</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>

--- a/Resultados/Mercado mundial - Ajíes y pimientos, verdes (capsicum y pimenta).xlsx
+++ b/Resultados/Mercado mundial - Ajíes y pimientos, verdes (capsicum y pimenta).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="México" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="España" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Mexico" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Spain" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -307,6 +307,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,10 +515,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,21 +843,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'México'!$B$12:$B$74</f>
+              <f>'Mexico'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'México'!$C$12:$C$74</f>
+              <f>'Mexico'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +925,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1007,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'España'!$B$12:$B$74</f>
+              <f>'Spain'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'España'!$C$12:$C$74</f>
+              <f>'Spain'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>2065408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>38310350.67</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>18.5486</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>38310350.67</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>3841509.05</v>
@@ -2160,10 +2161,10 @@
         <v>2057536</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>37346331.49</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>18.151</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>37346331.49</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3893378.44</v>
@@ -2182,10 +2183,10 @@
         <v>2067740</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>36729448.01</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>17.7631</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>36729448.01</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4020357.9</v>
@@ -2204,10 +2205,10 @@
         <v>2080739</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>36279306.09</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>17.4358</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>36279306.09</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3864816.06</v>
@@ -2226,10 +2227,10 @@
         <v>1975428</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>36162463.97</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>18.3061</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>36162463.97</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>3654160.29</v>
@@ -2248,10 +2249,10 @@
         <v>1987190</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>36054210.73</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>18.1433</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>36054210.73</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>3668505.53</v>
@@ -2270,10 +2271,10 @@
         <v>1945907</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>35255006.59</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>18.1175</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>35255006.59</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3424698.32</v>
@@ -2292,10 +2293,10 @@
         <v>1909072</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>33652931.41</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>17.6279</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>33652931.41</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3295615.33</v>
@@ -2314,10 +2315,10 @@
         <v>1889944</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>33532215.33</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>17.7424</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>33532215.33</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3094614.29</v>
@@ -2336,10 +2337,10 @@
         <v>1954113</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>32453894.07</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>16.608</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>32453894.07</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3110557.65</v>
@@ -2358,10 +2359,10 @@
         <v>1930067</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>31297984.13</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>16.216</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>31297984.13</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2926696</v>
@@ -2380,10 +2381,10 @@
         <v>1943202</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>31007996.02</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>15.9572</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>31007996.02</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2880119</v>
@@ -2402,10 +2403,10 @@
         <v>1903874</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>30290303.97</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>15.9098</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>30290303.97</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2692968</v>
@@ -2424,10 +2425,10 @@
         <v>1873860</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>29715006.06</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>15.8576</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>29715006.06</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2601950</v>
@@ -2446,10 +2447,10 @@
         <v>1876561</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>28780758.52</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>15.337</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>28780758.52</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2384903</v>
@@ -2468,10 +2469,10 @@
         <v>1812636</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>28135784.64</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>15.522</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>28135784.64</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2215537</v>
@@ -2490,10 +2491,10 @@
         <v>1720076</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>27442542.17</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>15.9543</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>27442542.17</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2059978</v>
@@ -2512,10 +2513,10 @@
         <v>1722857</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>26716003.35</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>15.5068</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>26716003.35</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2019649</v>
@@ -2534,10 +2535,10 @@
         <v>1685570</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>25373342.86</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>15.0533</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>25373342.86</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1884621</v>
@@ -2556,10 +2557,10 @@
         <v>1672813</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>24632623.97</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>14.7253</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>24632623.97</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1701796</v>
@@ -2578,10 +2579,10 @@
         <v>1713039</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>24339323.47</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>14.2083</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>24339323.47</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1582643</v>
@@ -2600,10 +2601,10 @@
         <v>1659440</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>22547199.15</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>13.5872</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>22547199.15</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1535685</v>
@@ -2622,10 +2623,10 @@
         <v>1590546</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>21428821.97</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>13.4726</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>21428821.97</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1348974</v>
@@ -2644,10 +2645,10 @@
         <v>1616497</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>20875426.81</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12.914</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>20875426.81</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1273160.19</v>
@@ -2666,10 +2667,10 @@
         <v>1591012</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>19448038.5</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>12.2237</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>19448038.5</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1243355.83</v>
@@ -2688,10 +2689,10 @@
         <v>1502873</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>18516694.29</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>12.3209</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>18516694.29</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1200233.19</v>
@@ -2710,10 +2711,10 @@
         <v>1402209</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>17297357.31</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>12.3358</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>17297357.31</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1102200.63</v>
@@ -2732,10 +2733,10 @@
         <v>1371339</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>16401728.83</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11.9604</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>16401728.83</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1048092.21</v>
@@ -2754,10 +2755,10 @@
         <v>1356953</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>14056137.15</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>10.3586</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>14056137.15</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>892583</v>
@@ -2776,10 +2777,10 @@
         <v>1235224</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>12976807.63</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>10.5056</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>12976807.63</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>831427</v>
@@ -2798,10 +2799,10 @@
         <v>1206330</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>12226550.4</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>10.1353</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>12226550.4</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>745725</v>
@@ -2820,10 +2821,10 @@
         <v>1071131</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>11313978.48</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>10.5626</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>11313978.48</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>740251</v>
@@ -2842,10 +2843,10 @@
         <v>1072484</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>10930448.36</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>10.1917</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>10930448.36</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>662015</v>
@@ -2864,10 +2865,10 @@
         <v>1072218</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>10862787.04</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>10.1311</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>10862787.04</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>600899</v>
@@ -2886,10 +2887,10 @@
         <v>1117566</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>10560365</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9.449399999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>10560365</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>622767</v>
@@ -2908,10 +2909,10 @@
         <v>1117363</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>10283712</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>9.2036</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>10283712</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>607164</v>
@@ -2930,10 +2931,10 @@
         <v>1098316</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10168094</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>9.257899999999999</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10168094</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>526340</v>
@@ -2952,10 +2953,10 @@
         <v>1176629</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>9855626</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8.376200000000001</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>9855626</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>491054</v>
@@ -2974,10 +2975,10 @@
         <v>1124909</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>9639460</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.569100000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>9639460</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>495649</v>
@@ -2996,10 +2997,10 @@
         <v>1038432</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>8899787</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>8.570399999999999</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>8899787</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>434488</v>
@@ -3018,10 +3019,10 @@
         <v>939852</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>8546421</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9.093399999999999</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>8546421</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>373088</v>
@@ -3040,10 +3041,10 @@
         <v>995094</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>8227332</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8.267899999999999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>8227332</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>368912</v>
@@ -3062,10 +3063,10 @@
         <v>946011</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>8019916</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>8.477600000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>8019916</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>332687</v>
@@ -3084,10 +3085,10 @@
         <v>909732</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>7666380</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.427100000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>7666380</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>340105</v>
@@ -3106,10 +3107,10 @@
         <v>892570</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>7833666</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8.7765</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>7833666</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>293140</v>
@@ -3128,10 +3129,10 @@
         <v>859316</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>7455134</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>8.675700000000001</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>7455134</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>292693</v>
@@ -3150,10 +3151,10 @@
         <v>848006</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>7385229</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>8.7089</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>7385229</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>256659</v>
@@ -3172,10 +3173,10 @@
         <v>838207</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6762045</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.067299999999999</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6762045</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>215633</v>
@@ -3194,10 +3195,10 @@
         <v>802107</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>6631299</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>8.267299999999999</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>6631299</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>191093</v>
@@ -3216,10 +3217,10 @@
         <v>774971</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>6732942</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.688000000000001</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>6732942</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>186607</v>
@@ -3238,10 +3239,10 @@
         <v>772620</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>6679200</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>8.6449</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>6679200</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>181133</v>
@@ -3260,10 +3261,10 @@
         <v>740296</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>6188506</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>8.359500000000001</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>6188506</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>154653</v>
@@ -3282,10 +3283,10 @@
         <v>675483</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>5955227</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>8.8163</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>5955227</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>155205</v>
@@ -3304,10 +3305,10 @@
         <v>638990</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>5472448</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.564200000000001</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>5472448</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>128337</v>
@@ -3326,10 +3327,10 @@
         <v>676473</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>6072170</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>8.9762</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>6072170</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>120726</v>
@@ -3348,10 +3349,10 @@
         <v>656792</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>6009570</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>9.149899999999999</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>6009570</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>80025</v>
@@ -3370,10 +3371,10 @@
         <v>658190</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5850733</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>8.889100000000001</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5850733</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>69683</v>
@@ -3391,10 +3392,10 @@
         <v>645905</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5635564</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.725100000000001</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5635564</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>87229</v>
@@ -3412,10 +3413,10 @@
         <v>611040</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5211668</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>8.529200000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5211668</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>71628</v>
@@ -3433,10 +3434,10 @@
         <v>582310</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5071488</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>8.709299999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5071488</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>66349</v>
@@ -3454,10 +3455,10 @@
         <v>597339</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5334801</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>8.930899999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5334801</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>57404</v>
@@ -3475,10 +3476,10 @@
         <v>595258</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>5212370</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>8.756500000000001</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>5212370</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>50895</v>
@@ -3496,10 +3497,10 @@
         <v>658953</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>5907926</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.9656</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>5907926</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>41490</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3896,7 +3897,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Egipto</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Argelia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4008,7 +4009,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Túnez</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4116,7 +4117,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4216,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4230,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4244,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4271,7 +4272,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4286,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4300,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4314,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4341,7 +4342,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4537,8 +4538,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4634,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4648,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4662,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4676,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4690,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4704,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4718,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4732,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Malasia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4746,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4760,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Tailandia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4774,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1195811.86</v>
+        <v>4168.76</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3112870084218596</v>
+        <v>0.001085188124182605</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1191643.1</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3102018202976771</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>3841509.05</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,58 +4820,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
+      <c r="C35" s="38" t="n"/>
       <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
+      <c r="C36" s="38" t="n"/>
       <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
@@ -4932,7 +4942,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5021,10 @@
         <v>762480</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>17104871.19</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.4332</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>17104871.19</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>30433.38</v>
@@ -5033,10 +5043,10 @@
         <v>760367</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>17158085.63</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22.5655</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>17158085.63</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>24914.95</v>
@@ -5055,10 +5065,10 @@
         <v>756349</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>17124602.25</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>22.6411</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>17124602.25</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>35439.42</v>
@@ -5077,10 +5087,10 @@
         <v>770725</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>17031925.69</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.0986</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>17031925.69</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>65448.12</v>
@@ -5099,10 +5109,10 @@
         <v>754028</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>17317728.97</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>22.967</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>17317728.97</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>78465.74000000001</v>
@@ -5121,10 +5131,10 @@
         <v>744293</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>17024152.09</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22.8729</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>17024152.09</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>106515.84</v>
@@ -5143,10 +5153,10 @@
         <v>737628</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>16753896</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>22.7132</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>16753896</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>7007.79</v>
@@ -5165,10 +5175,10 @@
         <v>728110</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>16415580.8</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>22.5455</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>16415580.8</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>5.63</v>
@@ -5187,10 +5197,10 @@
         <v>750208</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>17182908.93</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>22.9042</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>17182908.93</v>
       </c>
       <c r="F20" s="29" t="inlineStr"/>
       <c r="G20" s="29" t="n">
@@ -5207,10 +5217,10 @@
         <v>724123</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>16263833.46</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>22.46</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>16263833.46</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -5227,10 +5237,10 @@
         <v>710000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>15800000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>22.2535</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>15800000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -5249,10 +5259,10 @@
         <v>707000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>15600000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>22.0651</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>15600000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -5271,10 +5281,10 @@
         <v>705000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>15520000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>22.0142</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>15520000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -5293,10 +5303,10 @@
         <v>680000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>14978000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>22.0265</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>14978000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -5315,10 +5325,10 @@
         <v>660000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>21.9697</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>14500000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>300</v>
@@ -5337,10 +5347,10 @@
         <v>650000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>14250000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>21.9231</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>14250000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -5359,10 +5369,10 @@
         <v>650000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>21.5385</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>14000000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2</v>
@@ -5381,10 +5391,10 @@
         <v>630000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>20.6349</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13000000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -5403,10 +5413,10 @@
         <v>610000</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>20.4918</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>12500000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -5425,10 +5435,10 @@
         <v>605000</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>19.8347</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>12000000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>194</v>
@@ -5447,10 +5457,10 @@
         <v>600000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>19.1667</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>11500000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>131</v>
@@ -5469,10 +5479,10 @@
         <v>570000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>10500000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>18.4211</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>10500000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>40</v>
@@ -5491,10 +5501,10 @@
         <v>530000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>9850000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.5849</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>9850000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>165</v>
@@ -5513,10 +5523,10 @@
         <v>500000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>9400000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>18.8</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>9400000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>7.05</v>
@@ -5535,10 +5545,10 @@
         <v>440000</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>7800000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>17.7273</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>7800000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>31</v>
@@ -5557,10 +5567,10 @@
         <v>400000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7250000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>18.125</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>7250000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26</v>
@@ -5579,10 +5589,10 @@
         <v>380000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>18.4211</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7000000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>9</v>
@@ -5601,10 +5611,10 @@
         <v>350000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>18.5714</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>6500000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>31</v>
@@ -5623,10 +5633,10 @@
         <v>300000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>5470000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>18.2333</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>5470000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>16</v>
@@ -5645,10 +5655,10 @@
         <v>285000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17.5439</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>5000000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9</v>
@@ -5667,10 +5677,10 @@
         <v>245000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>4300000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>17.551</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>4300000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>14</v>
@@ -5689,10 +5699,10 @@
         <v>170000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>20</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3400000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>543</v>
@@ -5711,10 +5721,10 @@
         <v>185000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>17.2973</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3200000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -5733,10 +5743,10 @@
         <v>180000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>17.2222</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3100000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -5755,10 +5765,10 @@
         <v>170000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>17.0588</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2900000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -5777,10 +5787,10 @@
         <v>166000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>16.8675</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2800000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -5799,10 +5809,10 @@
         <v>160000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>16.875</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2700000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -5821,10 +5831,10 @@
         <v>160000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>16.875</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>2700000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5843,10 +5853,10 @@
         <v>160000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16.875</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2700000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5865,10 +5875,10 @@
         <v>155000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>16.129</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2500000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5887,10 +5897,10 @@
         <v>150000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>15.3333</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2300000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5909,10 +5919,10 @@
         <v>148000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>15.5405</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2300000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5931,10 +5941,10 @@
         <v>135000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>2145000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>15.8889</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>2145000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5953,10 +5963,10 @@
         <v>125000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1865000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>14.92</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1865000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5975,10 +5985,10 @@
         <v>130000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15.3846</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -5997,10 +6007,10 @@
         <v>135000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15.1852</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2050000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6019,10 +6029,10 @@
         <v>120000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1940000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>16.1667</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1940000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6041,10 +6051,10 @@
         <v>110000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16.1818</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1780000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6063,10 +6073,10 @@
         <v>110000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1780000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>16.1818</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1780000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6085,10 +6095,10 @@
         <v>105000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1710000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16.2857</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1710000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6107,10 +6117,10 @@
         <v>110000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15.3636</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1690000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6129,10 +6139,10 @@
         <v>95000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15.4737</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1470000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6151,10 +6161,10 @@
         <v>100000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1630000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>16.3</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1630000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6173,10 +6183,10 @@
         <v>90000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>16.3333</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1470000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6195,10 +6205,10 @@
         <v>135000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>15.5556</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2100000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6217,10 +6227,10 @@
         <v>135000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2080000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>15.4074</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2080000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6239,10 +6249,10 @@
         <v>145000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2030000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>14</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2030000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6260,10 +6270,10 @@
         <v>145000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13.7931</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6281,10 +6291,10 @@
         <v>150000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>13.3333</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>2000000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6302,10 +6312,10 @@
         <v>150000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12.6667</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1900000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6323,10 +6333,10 @@
         <v>170000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2130000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12.5294</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2130000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6344,10 +6354,10 @@
         <v>200000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2385000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.925</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2385000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6365,10 +6375,10 @@
         <v>280000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3120000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.1429</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3120000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6704,7 +6714,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6783,10 +6793,10 @@
         <v>173134</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3681061.47</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>21.2613</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3681061.47</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4168.76</v>
@@ -6805,10 +6815,10 @@
         <v>156932</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2577010.05</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>16.4212</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2577010.05</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3024.68</v>
@@ -6827,10 +6837,10 @@
         <v>147808</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2584143.6</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>17.4831</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2584143.6</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2359.85</v>
@@ -6849,10 +6859,10 @@
         <v>157911</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2818442.96</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>17.8483</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2818442.96</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>3064.47</v>
@@ -6871,10 +6881,10 @@
         <v>149577</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2717393.53</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>18.1672</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2717393.53</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1975.84</v>
@@ -6893,10 +6903,10 @@
         <v>156799</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>3379289.13</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>21.5517</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>3379289.13</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>1258.12</v>
@@ -6915,10 +6925,10 @@
         <v>160438</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>3296874.66</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>20.5492</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>3296874.66</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2098.86</v>
@@ -6937,10 +6947,10 @@
         <v>170135</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2737028.11</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>16.0874</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2737028.11</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2124.97</v>
@@ -6959,10 +6969,10 @@
         <v>148689</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2389828.87</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>16.0727</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2389828.87</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2639.09</v>
@@ -6981,10 +6991,10 @@
         <v>143465</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2382988.59</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>16.6102</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2382988.59</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3852.7</v>
@@ -7003,10 +7013,10 @@
         <v>132910</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2294400</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>17.2628</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2294400</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>3616</v>
@@ -7025,10 +7035,10 @@
         <v>136132</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2379736</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>17.4811</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2379736</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>6473</v>
@@ -7047,10 +7057,10 @@
         <v>144391</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2131740</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>14.7637</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2131740</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>4713</v>
@@ -7069,10 +7079,10 @@
         <v>143979</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2335562</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>16.2215</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2335562</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>6440</v>
@@ -7091,10 +7101,10 @@
         <v>140440</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1941564</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>13.8249</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1941564</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4767</v>
@@ -7113,10 +7123,10 @@
         <v>132337</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2054968</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>15.5283</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2054968</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>7086</v>
@@ -7135,10 +7145,10 @@
         <v>87863</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1890428</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>21.5156</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1890428</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>7649</v>
@@ -7157,10 +7167,10 @@
         <v>92292</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1681277</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>18.2169</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1681277</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4791</v>
@@ -7179,10 +7189,10 @@
         <v>92193</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1617264</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>17.5422</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1617264</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>3412</v>
@@ -7201,10 +7211,10 @@
         <v>82048</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1431258</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>17.4442</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1431258</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>6974</v>
@@ -7223,10 +7233,10 @@
         <v>140693</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1853610</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13.1749</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1853610</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5746</v>
@@ -7245,10 +7255,10 @@
         <v>140174</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1784540</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>12.7309</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1784540</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>4089</v>
@@ -7267,10 +7277,10 @@
         <v>146890</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1870890</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>12.7367</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1870890</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>4945</v>
@@ -7289,10 +7299,10 @@
         <v>145427</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1734630</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>11.9278</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1734630</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3394.07</v>
@@ -7311,10 +7321,10 @@
         <v>163533</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1797197</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>10.9898</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1797197</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1878</v>
@@ -7333,10 +7343,10 @@
         <v>155980</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1849559</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>11.8577</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1849559</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2675</v>
@@ -7355,10 +7365,10 @@
         <v>99655</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1445723</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>14.5073</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1445723</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2796</v>
@@ -7377,10 +7387,10 @@
         <v>82722</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>982447</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>11.8765</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>982447</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>711</v>
@@ -7399,10 +7409,10 @@
         <v>75972</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>918491</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>12.0899</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>918491</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1037</v>
@@ -7421,10 +7431,10 @@
         <v>83589</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>766715</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>9.1724</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>766715</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2547</v>
@@ -7443,10 +7453,10 @@
         <v>102347</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>875527</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8.554500000000001</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>875527</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2656</v>
@@ -7465,10 +7475,10 @@
         <v>96104</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>868036</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>9.032299999999999</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>868036</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2154</v>
@@ -7487,10 +7497,10 @@
         <v>73360</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>761217</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>10.3765</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>761217</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2414</v>
@@ -7509,10 +7519,10 @@
         <v>66413</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>633676</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>9.541399999999999</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>633676</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1100</v>
@@ -7531,10 +7541,10 @@
         <v>74471</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>645498</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>8.6678</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>645498</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>177</v>
@@ -7553,10 +7563,10 @@
         <v>72580</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>595370</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>8.2029</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>595370</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>212</v>
@@ -7575,10 +7585,10 @@
         <v>65483</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>669759</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.228</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>669759</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -7597,10 +7607,10 @@
         <v>66184</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>543851</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>8.2173</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>543851</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -7619,10 +7629,10 @@
         <v>79329</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>663082</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>8.358600000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>663082</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7641,10 +7651,10 @@
         <v>50935</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>532266</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>10.4499</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>532266</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -7663,10 +7673,10 @@
         <v>47762</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>460740</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>9.646600000000001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>460740</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -7685,10 +7695,10 @@
         <v>61910</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>511778</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>8.266500000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>511778</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -7707,10 +7717,10 @@
         <v>45106</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>409190</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>9.0717</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>409190</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -7729,10 +7739,10 @@
         <v>60652</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>530573</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>8.7478</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>530573</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -7751,10 +7761,10 @@
         <v>57909</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>497718</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>8.594799999999999</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>497718</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -7773,10 +7783,10 @@
         <v>55911</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>531286</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>9.5024</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>531286</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -7795,10 +7805,10 @@
         <v>49821</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>481682</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>9.668299999999999</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>481682</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -7817,10 +7827,10 @@
         <v>40246</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>338930</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>8.4215</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>338930</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -7839,10 +7849,10 @@
         <v>40189</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>273149</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>6.796600000000001</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>273149</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -7861,10 +7871,10 @@
         <v>55765</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>415614</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>7.453</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>415614</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -7883,10 +7893,10 @@
         <v>56876</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>399511</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7.0242</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>399511</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -7905,10 +7915,10 @@
         <v>60787</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>435071</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7.1573</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>435071</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -7927,10 +7937,10 @@
         <v>44949</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>310202</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>6.9012</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>310202</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -7949,10 +7959,10 @@
         <v>36291</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>190835</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>5.2585</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>190835</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -7971,10 +7981,10 @@
         <v>35588</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>178384</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5.0125</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>178384</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -7993,10 +8003,10 @@
         <v>38259</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>191721</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5.011100000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>191721</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -8015,10 +8025,10 @@
         <v>37801</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>199522</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5.2782</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>199522</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -8036,10 +8046,10 @@
         <v>42502</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>167129</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>3.9323</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>167129</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -8057,10 +8067,10 @@
         <v>41751</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>134440</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>3.22</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>134440</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -8078,10 +8088,10 @@
         <v>41517</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>133619</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>3.2184</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>133619</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -8099,10 +8109,10 @@
         <v>40129</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>122701</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>3.0577</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>122701</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -8120,10 +8130,10 @@
         <v>37409</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>109206</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.9192</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>109206</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -8141,10 +8151,10 @@
         <v>34117</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>96798</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.8372</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>96798</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -8480,7 +8490,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8559,10 +8569,10 @@
         <v>76223</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3081010</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>40.421</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3081010</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>546.22</v>
@@ -8581,10 +8591,10 @@
         <v>76398</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3018775</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>39.5138</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3018775</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>827.25</v>
@@ -8603,10 +8613,10 @@
         <v>80239</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3091295</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>38.5261</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3091295</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>921.36</v>
@@ -8625,10 +8635,10 @@
         <v>77786</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2636905</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>33.8995</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2636905</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>296.91</v>
@@ -8647,10 +8657,10 @@
         <v>79267</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2625669</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>33.1244</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2625669</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>220.23</v>
@@ -8669,10 +8679,10 @@
         <v>78652</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2554974</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>32.4845</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2554974</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>234.95</v>
@@ -8691,10 +8701,10 @@
         <v>80517</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2608172</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>32.3928</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2608172</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>32.46</v>
@@ -8713,10 +8723,10 @@
         <v>81563</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2457822</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>30.134</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2457822</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>250.68</v>
@@ -8735,10 +8745,10 @@
         <v>79262</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2307456</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>29.1118</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2307456</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>66.84</v>
@@ -8757,10 +8767,10 @@
         <v>78974</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2232308</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>28.2664</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2232308</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>196.95</v>
@@ -8779,10 +8789,10 @@
         <v>78758</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2159348</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>27.4175</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2159348</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1712</v>
@@ -8801,10 +8811,10 @@
         <v>78708</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2042360</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>25.9486</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2042360</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>7</v>
@@ -8823,10 +8833,10 @@
         <v>76553</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1975269</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>25.8026</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1975269</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>43</v>
@@ -8845,10 +8855,10 @@
         <v>81162</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1986700</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>24.4782</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1986700</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>53</v>
@@ -8867,10 +8877,10 @@
         <v>75492</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1837003</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>24.3337</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1837003</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>30</v>
@@ -8889,10 +8899,10 @@
         <v>76215</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1796177</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>23.5672</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1796177</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -8911,10 +8921,10 @@
         <v>75212</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1757226</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>23.3636</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1757226</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>7</v>
@@ -8933,10 +8943,10 @@
         <v>78558</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1842175</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>23.4499</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1842175</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>124</v>
@@ -8955,10 +8965,10 @@
         <v>80493</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1829000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>22.7225</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1829000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>22</v>
@@ -8977,10 +8987,10 @@
         <v>78083</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.7717</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>10</v>
@@ -8999,10 +9009,10 @@
         <v>80425</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1790000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>22.2568</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1790000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>98</v>
@@ -9021,10 +9031,10 @@
         <v>77259</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>22.6511</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1750000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -9043,10 +9053,10 @@
         <v>73143</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1560000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>21.3281</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1560000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>43</v>
@@ -9065,10 +9075,10 @@
         <v>69850</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1480000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>21.1883</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1480000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>156.5</v>
@@ -9087,10 +9097,10 @@
         <v>70077</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1462000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>20.8628</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1462000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>41</v>
@@ -9109,10 +9119,10 @@
         <v>69884</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>20.0332</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1400000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1243</v>
@@ -9131,10 +9141,10 @@
         <v>61933</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1130000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>18.2455</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1130000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>520</v>
@@ -9153,10 +9163,10 @@
         <v>64429</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1150000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>17.8491</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1150000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1944</v>
@@ -9175,10 +9185,10 @@
         <v>63898</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1080000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>16.9019</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1080000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8</v>
@@ -9197,10 +9207,10 @@
         <v>57658</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1008000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17.4824</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1008000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>83</v>
@@ -9219,10 +9229,10 @@
         <v>58386</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>965000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.5279</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>965000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>598</v>
@@ -9241,10 +9251,10 @@
         <v>56185</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>954000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>16.9796</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>954000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>53</v>
@@ -9263,10 +9273,10 @@
         <v>49805</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>920000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>18.472</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>920000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>200</v>
@@ -9285,10 +9295,10 @@
         <v>48695</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>18.4824</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>900000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>74</v>
@@ -9307,10 +9317,10 @@
         <v>48000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>853000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>17.7708</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>853000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -9329,10 +9339,10 @@
         <v>47000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>730000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15.5319</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>730000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -9351,10 +9361,10 @@
         <v>47500</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>750000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.7895</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>750000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -9373,10 +9383,10 @@
         <v>49000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>738000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>15.0612</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>738000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9395,10 +9405,10 @@
         <v>50000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>725000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>14.5</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>725000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9417,10 +9427,10 @@
         <v>47000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>665000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>14.1489</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>665000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9439,10 +9449,10 @@
         <v>46000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>640000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>13.913</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>640000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9461,10 +9471,10 @@
         <v>48000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9483,10 +9493,10 @@
         <v>54000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>11.1111</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9505,10 +9515,10 @@
         <v>41000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>580000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>14.1463</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>580000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9527,10 +9537,10 @@
         <v>41000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>545000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13.2927</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>545000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9549,10 +9559,10 @@
         <v>41000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>510000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.439</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>510000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9571,10 +9581,10 @@
         <v>37000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12.973</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>480000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9593,10 +9603,10 @@
         <v>31000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>380000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>12.2581</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>380000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9615,10 +9625,10 @@
         <v>31000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>375000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>12.0968</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>375000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9637,10 +9647,10 @@
         <v>30000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>370000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>12.3333</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>370000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9659,10 +9669,10 @@
         <v>28000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>345000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>12.3214</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>345000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9681,10 +9691,10 @@
         <v>27500</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>12.3636</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>340000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9703,10 +9713,10 @@
         <v>26500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.4528</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>330000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9725,10 +9735,10 @@
         <v>26000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>307000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.8077</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>307000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9747,10 +9757,10 @@
         <v>23400</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>290151</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>12.3996</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>290151</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9769,10 +9779,10 @@
         <v>22400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>254808</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.3754</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>254808</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9791,10 +9801,10 @@
         <v>22400</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11.3839</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>255000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9812,10 +9822,10 @@
         <v>24200</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10.5372</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>255000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9833,10 +9843,10 @@
         <v>23700</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>273000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11.519</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>273000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9854,10 +9864,10 @@
         <v>23000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>265000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>11.5217</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>265000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9875,10 +9885,10 @@
         <v>22200</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11.4865</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>255000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9896,10 +9906,10 @@
         <v>21700</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.5207</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9917,10 +9927,10 @@
         <v>20900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>240000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>11.4833</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>240000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10256,7 +10266,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10335,10 +10345,10 @@
         <v>338636</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3061260.44</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>9.039999999999999</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3061260.44</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -10355,10 +10365,10 @@
         <v>334545</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3020262.11</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>9.028</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3020262.11</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>0.07000000000000001</v>
@@ -10377,10 +10387,10 @@
         <v>321923</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2747018.03</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>8.533100000000001</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2747018.03</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>0.04</v>
@@ -10399,10 +10409,10 @@
         <v>314772</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2772593.76</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>8.808299999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2772593.76</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>0.01</v>
@@ -10421,10 +10431,10 @@
         <v>300377</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2588632.56</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>8.617899999999999</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2588632.56</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.93</v>
@@ -10443,10 +10453,10 @@
         <v>310365</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2542333</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>8.1914</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2542333</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.12</v>
@@ -10465,10 +10475,10 @@
         <v>310147</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2359441</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>7.6075</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2359441</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10485,10 +10495,10 @@
         <v>260222</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1961598</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>7.5382</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1961598</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10505,10 +10515,10 @@
         <v>255716</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1915016</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>7.4888</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1915016</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>42.57</v>
@@ -10527,10 +10537,10 @@
         <v>263932</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1882106.1</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7.131</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1882106.1</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>29.5</v>
@@ -10549,10 +10559,10 @@
         <v>249516</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1733214.7</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>6.9463</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1733214.7</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>294</v>
@@ -10571,10 +10581,10 @@
         <v>242523</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1742711</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7.1858</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1742711</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2822</v>
@@ -10593,10 +10603,10 @@
         <v>239991</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1613699</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>6.724</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1613699</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>7501</v>
@@ -10615,10 +10625,10 @@
         <v>237266</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1384184</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>5.8339</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1384184</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>1850</v>
@@ -10637,10 +10647,10 @@
         <v>279452</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1424275</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>5.0967</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1424275</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>905</v>
@@ -10659,10 +10669,10 @@
         <v>232703</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1174197</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>5.0459</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1174197</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>501</v>
@@ -10681,10 +10691,10 @@
         <v>204048</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1128791.7</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>5.532</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1128791.7</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>310</v>
@@ -10703,10 +10713,10 @@
         <v>204747</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1185057</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>5.7879</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1185057</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>145</v>
@@ -10725,10 +10735,10 @@
         <v>187236</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1058023</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>5.6507</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1058023</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>291</v>
@@ -10747,10 +10757,10 @@
         <v>194588</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1100514</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>5.655600000000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1100514</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>112</v>
@@ -10769,10 +10779,10 @@
         <v>176264</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1066722</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>6.0518</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1066722</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>34</v>
@@ -10791,10 +10801,10 @@
         <v>150598</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>635089</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4.2171</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>635089</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>25</v>
@@ -10813,10 +10823,10 @@
         <v>142556</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>580464</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4.071800000000001</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>580464</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>193</v>
@@ -10835,10 +10845,10 @@
         <v>174708</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>727747</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>4.1655</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>727747</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>158.98</v>
@@ -10857,10 +10867,10 @@
         <v>183347</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1007726</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>5.4963</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1007726</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>350</v>
@@ -10879,10 +10889,10 @@
         <v>164814</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>848388</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>5.1475</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>848388</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>26</v>
@@ -10901,10 +10911,10 @@
         <v>161319</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>801545</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4.9687</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>801545</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>23</v>
@@ -10923,10 +10933,10 @@
         <v>169610</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1043211</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>6.150600000000001</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1043211</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>42</v>
@@ -10945,10 +10955,10 @@
         <v>265083</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>471017</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.7769</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>471017</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>118</v>
@@ -10967,10 +10977,10 @@
         <v>161090</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>316915</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.9673</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>316915</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>122</v>
@@ -10989,10 +10999,10 @@
         <v>157499</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>315385</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2.0025</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>315385</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>34</v>
@@ -11011,10 +11021,10 @@
         <v>162479</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>323407</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.9905</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>323407</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>57</v>
@@ -11033,10 +11043,10 @@
         <v>193551</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>425000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.1958</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>425000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>12</v>
@@ -11055,10 +11065,10 @@
         <v>190000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>417000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.1947</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>417000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1</v>
@@ -11077,10 +11087,10 @@
         <v>240000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>518000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.1583</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>518000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>27</v>
@@ -11099,10 +11109,10 @@
         <v>235000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>449000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.9106</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>449000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -11121,10 +11131,10 @@
         <v>230429</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>436189</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.8929</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>436189</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -11143,10 +11153,10 @@
         <v>280000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>439000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.5679</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>439000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -11165,10 +11175,10 @@
         <v>264321</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>341564</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.2922</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>341564</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11187,10 +11197,10 @@
         <v>243246</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>313685</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.2896</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>313685</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11209,10 +11219,10 @@
         <v>120388</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>301000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.5002</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>301000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -11231,10 +11241,10 @@
         <v>173717</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>173700</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.9999</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>173700</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11253,10 +11263,10 @@
         <v>107000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>219445</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>2.0509</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>219445</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1</v>
@@ -11275,10 +11285,10 @@
         <v>104000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>207551</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.9957</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>207551</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11297,10 +11307,10 @@
         <v>108000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>220082</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2.0378</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>220082</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11319,10 +11329,10 @@
         <v>112693</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>214100</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.8999</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>214100</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11341,10 +11351,10 @@
         <v>105000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2.0476</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11363,10 +11373,10 @@
         <v>104800</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>194600</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.8569</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>194600</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11385,10 +11395,10 @@
         <v>105900</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>252000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2.3796</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>252000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11407,10 +11417,10 @@
         <v>103200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>323800</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3.1376</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>323800</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -11429,10 +11439,10 @@
         <v>110872</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>299354</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.7</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>299354</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -11451,10 +11461,10 @@
         <v>100000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -11473,10 +11483,10 @@
         <v>100000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -11495,10 +11505,10 @@
         <v>100000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>190000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.9</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>190000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11517,10 +11527,10 @@
         <v>100000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>189000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.89</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>189000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -11539,10 +11549,10 @@
         <v>83569</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>175500</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.1001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>175500</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11561,10 +11571,10 @@
         <v>90000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.8889</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>170000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11582,10 +11592,10 @@
         <v>90000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.8889</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>170000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11603,10 +11613,10 @@
         <v>80000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.9375</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>155000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11624,10 +11634,10 @@
         <v>67000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>127000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.8955</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>127000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11645,10 +11655,10 @@
         <v>64000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>121000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.8906</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>121000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -11666,10 +11676,10 @@
         <v>48000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -11687,10 +11697,10 @@
         <v>48000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.875</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>90000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -12026,7 +12036,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12105,10 +12115,10 @@
         <v>21670</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1389830</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>64.1361</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1389830</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>85431.74000000001</v>
@@ -12127,10 +12137,10 @@
         <v>22260</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1533280</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>68.8805</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1533280</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>89571.00999999999</v>
@@ -12149,10 +12159,10 @@
         <v>22240</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1511560</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>67.9658</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1511560</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>76400.09</v>
@@ -12171,10 +12181,10 @@
         <v>21750</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1472850</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>67.71719999999999</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1472850</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>67638.17999999999</v>
@@ -12193,10 +12203,10 @@
         <v>21430</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1402380</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>65.44</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1402380</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>73530.38</v>
@@ -12215,10 +12225,10 @@
         <v>20580</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1275460</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>61.9757</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1275460</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>66303.07000000001</v>
@@ -12237,10 +12247,10 @@
         <v>20498</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1277908</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>62.3431</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1277908</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>54516.7</v>
@@ -12259,10 +12269,10 @@
         <v>19623</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1175635</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>59.9111</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1175635</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>45667.53</v>
@@ -12281,10 +12291,10 @@
         <v>18263</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1102522</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>60.3692</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1102522</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>37443.17</v>
@@ -12303,10 +12313,10 @@
         <v>18513</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1130340</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>61.0566</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1130340</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>33696.66</v>
@@ -12325,10 +12335,10 @@
         <v>18100</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>999600</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>55.2265</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>999600</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>31371</v>
@@ -12347,10 +12357,10 @@
         <v>17440</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>970296</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>55.6362</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>970296</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>24853</v>
@@ -12369,10 +12379,10 @@
         <v>17739</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>921089</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>51.9245</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>921089</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>28971</v>
@@ -12391,10 +12401,10 @@
         <v>18139</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>875657</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>48.27480000000001</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>875657</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>23537</v>
@@ -12413,10 +12423,10 @@
         <v>19099</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>932191</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>48.8084</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>932191</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>32060</v>
@@ -12435,10 +12445,10 @@
         <v>18861</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>918140</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>48.6793</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>918140</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>31682</v>
@@ -12457,10 +12467,10 @@
         <v>21798</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1057533</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>48.5151</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1057533</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>25744</v>
@@ -12479,10 +12489,10 @@
         <v>23699</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1147774</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>48.4313</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1147774</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>17882</v>
@@ -12501,10 +12511,10 @@
         <v>23672</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1060362</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>44.7939</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1060362</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>18335</v>
@@ -12523,10 +12533,10 @@
         <v>22895</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1077025</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>47.0419</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1077025</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>14086</v>
@@ -12545,10 +12555,10 @@
         <v>22388</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1056181</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>47.17619999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1056181</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>11513</v>
@@ -12567,10 +12577,10 @@
         <v>21964</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1056184</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>48.0871</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1056184</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>8293</v>
@@ -12589,10 +12599,10 @@
         <v>22786</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>979151</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>42.9716</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>979151</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>4723</v>
@@ -12611,10 +12621,10 @@
         <v>23204</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>946762</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>40.8017</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>946762</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>3093</v>
@@ -12633,10 +12643,10 @@
         <v>22600</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>924100</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>40.8894</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>924100</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2036</v>
@@ -12655,10 +12665,10 @@
         <v>22350</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>890070</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>39.8242</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>890070</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1165</v>
@@ -12677,10 +12687,10 @@
         <v>22856</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>893275</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>39.0827</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>893275</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1036</v>
@@ -12699,10 +12709,10 @@
         <v>23200</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>867700</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>37.4009</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>867700</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1265</v>
@@ -12721,10 +12731,10 @@
         <v>22900</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>790500</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>34.5197</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>790500</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>2160</v>
@@ -12743,10 +12753,10 @@
         <v>24500</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>742600</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>30.3102</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>742600</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>2170</v>
@@ -12765,10 +12775,10 @@
         <v>25200</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>733800</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>29.119</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>733800</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>2083</v>
@@ -12787,10 +12797,10 @@
         <v>26400</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>755300</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>28.6098</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>755300</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>2372</v>
@@ -12809,10 +12819,10 @@
         <v>25900</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>731600</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>28.2471</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>731600</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1933</v>
@@ -12831,10 +12841,10 @@
         <v>28400</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>900500</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>31.7077</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>900500</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>912</v>
@@ -12853,10 +12863,10 @@
         <v>27400</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>795400</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>29.0292</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>795400</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>50</v>
@@ -12875,10 +12885,10 @@
         <v>25400</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>724200</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>28.5118</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>724200</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>62</v>
@@ -12897,10 +12907,10 @@
         <v>27100</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>700200</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>25.8376</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>700200</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>392</v>
@@ -12919,10 +12929,10 @@
         <v>27200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>692800</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>25.4706</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>692800</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>109</v>
@@ -12941,10 +12951,10 @@
         <v>26284</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>670552</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>25.5118</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>670552</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -12963,10 +12973,10 @@
         <v>27360</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>635058</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>23.2112</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>635058</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -12985,10 +12995,10 @@
         <v>25700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>601700</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>23.4125</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>601700</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -13007,10 +13017,10 @@
         <v>27600</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>579400</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>20.9928</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>579400</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -13029,10 +13039,10 @@
         <v>26700</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>549800</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>20.5918</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>549800</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -13051,10 +13061,10 @@
         <v>26900</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>551400</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>20.4981</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>551400</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -13073,10 +13083,10 @@
         <v>28600</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>538300</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>18.8217</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>538300</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>582</v>
@@ -13095,10 +13105,10 @@
         <v>29000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>522400</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>18.0138</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>522400</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>23</v>
@@ -13117,10 +13127,10 @@
         <v>28800</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>480900</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>16.6979</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>480900</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>33</v>
@@ -13139,10 +13149,10 @@
         <v>29700</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>492000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16.5657</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>492000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>14</v>
@@ -13161,10 +13171,10 @@
         <v>27700</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>460000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>16.6065</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>460000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>9</v>
@@ -13183,10 +13193,10 @@
         <v>27800</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>456800</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16.4317</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>456800</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>173</v>
@@ -13205,10 +13215,10 @@
         <v>31200</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>544500</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>17.4519</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>544500</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>106</v>
@@ -13227,10 +13237,10 @@
         <v>27700</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>439800</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15.8773</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>439800</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>52</v>
@@ -13249,10 +13259,10 @@
         <v>23600</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>384300</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>16.2839</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>384300</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>30</v>
@@ -13271,10 +13281,10 @@
         <v>24200</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>394500</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>16.3017</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>394500</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>35</v>
@@ -13293,10 +13303,10 @@
         <v>22265</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>372100</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>16.7123</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>372100</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>83</v>
@@ -13315,10 +13325,10 @@
         <v>23500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>392200</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>16.6894</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>392200</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>100</v>
@@ -13337,10 +13347,10 @@
         <v>23500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>384100</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>16.3447</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>384100</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>139</v>
@@ -13358,10 +13368,10 @@
         <v>22700</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>361700</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>15.9339</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>361700</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>215</v>
@@ -13379,10 +13389,10 @@
         <v>21600</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>383000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>17.7315</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>383000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>146</v>
@@ -13400,10 +13410,10 @@
         <v>20800</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>367300</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>17.6587</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>367300</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>98</v>
@@ -13421,10 +13431,10 @@
         <v>22900</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>402700</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>17.5852</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>402700</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>225</v>
@@ -13442,10 +13452,10 @@
         <v>21900</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>333500</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>15.2283</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>333500</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -13463,10 +13473,10 @@
         <v>20300</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>356700</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>17.5714</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>356700</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
